--- a/merged_profiles_mautic.xlsx
+++ b/merged_profiles_mautic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:L189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -650,7 +650,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>lechner_s@senoplast.com</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Josef</t>
@@ -896,7 +900,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>franz.maurer@at.trumpf.com</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Franz</t>
@@ -1076,7 +1084,11 @@
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>https://www.test-fuchs.com</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/christopher-ferkl-3bba59237/</t>
@@ -1184,7 +1196,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>michael.ninaus@gmail.com</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Michael</t>
@@ -1380,7 +1396,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>rajat.s@milch.com</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Rajat</t>
@@ -1480,7 +1500,11 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>peter.weber@joanneum.at</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Peter</t>
@@ -1626,7 +1650,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>jens.schiefer@180amsterdam.com</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Jens</t>
@@ -1676,7 +1704,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>frieder.schuschnig@ankerbrot.at</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Frieder</t>
@@ -1726,7 +1758,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>lukas.schneider@stanna.at</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Lukas</t>
@@ -1826,7 +1862,11 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>b.weitlaner@kh-lienz.at</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Bernhard</t>
@@ -1874,214 +1914,218 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>michael.roetzer@dieerfolgswerkstatt.com</t>
+          <t>franz.gewessler@integrationsfonds.at</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Franz</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Roetzer</t>
+          <t>Gewessler</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Ortner Reinraumtechnik</t>
+          <t>Österreichischer Integrationsfonds</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Wiesbaden, Hesse, Germany</t>
+          <t>Vienna, Vienna, Austria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>michael.roetzer@dieerfolgswerkstatt.com</t>
+          <t>franz.gewessler@integrationsfonds.at</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Geschäftsführer</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Deutschland</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>http://www.ortner-group.com/</t>
-        </is>
-      </c>
+          <t>EDV-Trainer</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/michaelroetzer/</t>
+          <t>https://www.linkedin.com/in/franz-gewessler-466a20115/</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>wolfgang.tongisch@gmail.com</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Stefan</t>
+          <t>Wolfgang</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Kulcke</t>
+          <t>Tongisch</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Thöni Industriebetriebe</t>
+          <t>bit schulungscenter</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Innsbruck, Tyrol, Austria</t>
+          <t>Vienna, Vienna, Austria</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Head of IT / Leiter IT</t>
+          <t>EDV-Trainer</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Telfs, Tirol, Österreich</t>
+          <t>Wien, Österreich</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>https://www.thoeni.com/</t>
+          <t>https://www.bitschulungscenter.at/</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/stefan-kulcke-b268374/</t>
+          <t>https://www.linkedin.com/in/wolfgang-tongisch-603203ab/</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>markus.krassnitzer@gmail.com</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Helmut</t>
+          <t>Markus</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Giritzer</t>
+          <t>Krassnitzer</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>EE Elektronik Ges.m.b.H.</t>
+          <t>ENcome Energy Performance</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Klagenfurt, Carinthia, Austria</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Leiter IT Infrastruktur und Sicherheit</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Engerwitzdorf</t>
-        </is>
-      </c>
+          <t>CISO</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>https://www.epluse.com</t>
+          <t>http://www.en-come.com</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/helmut-giritzer-772497113/</t>
+          <t>https://www.linkedin.com/in/markus-krassnitzer-68b69541/</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>weidinger.christoph@gmail.com</t>
+          <t>juergen.mayerhofer@enspired-trading.com</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Christoph</t>
+          <t>Juergen</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Weidinger</t>
+          <t>Mayerhofer</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>BG-Graspointner</t>
+          <t>enspired</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
+          <t>Vienna, Vienna, Austria</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>juergen.mayerhofer@enspired-trading.com</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Head of IT / IT Leiter</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr"/>
+          <t>CEO &amp; Co-Founder</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Global · Hybrid</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>https://www.bg-graspointner.com/en-at</t>
+          <t>http://www.weforum.org</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/christoph-weidinger-78b086a3/</t>
+          <t>https://www.linkedin.com/in/juergenmayerhofer/</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>hans.berger@porsche.co.at</t>
+          <t>patrick.lamprecht@treibacher.com</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Hans</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Berger</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Porsche Inter Auto GmbH &amp; Co.KG</t>
+          <t>Treibacher Industrie</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -2093,99 +2137,99 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>hans.berger@porsche.co.at</t>
+          <t>patrick.lamprecht@treibacher.com</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Leiter IT / Head of IT</t>
+          <t>Stv. IT-Leiter</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Althofen, Kärnten, Österreich</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>www.porscheinterauto.at</t>
+          <t>http://treibacher.com/en/</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/hans-berger-5a974a25/</t>
+          <t>https://www.linkedin.com/in/patrick-l-4b697b17b/</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>mroth@kabsi.at</t>
+          <t>pendlinger@gmail.com</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Günter</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Roth</t>
+          <t>Edlinger</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Fresenius Health Services IT</t>
+          <t>g.tec medical engineering</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Vienna, Vienna, Austria</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>mroth@kabsi.at</t>
-        </is>
-      </c>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Stv. Leitung IT-Infrastruktur</t>
+          <t>CEO &amp; Founder</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Vienna, Austria · On-site</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
+          <t>Graz, Styria, Austria</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>http://www.gtec.at</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/michaelroth/</t>
+          <t>https://www.linkedin.com/in/guenter-edlinger/</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>r.schwarz@blackstream.eu</t>
+          <t>rene.schmid@stw.at</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Rene</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Schwarz</t>
+          <t>Schmid</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Kuratorium Wiener Pensionisten-Wohnhäuser</t>
+          <t>Stadtwerke Klagenfurt</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -2197,457 +2241,449 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>r.schwarz@blackstream.eu</t>
+          <t>rene.schmid@stw.at</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>IT-Leiter / CIO</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Wien, Österreich</t>
-        </is>
-      </c>
+          <t>Fachbereichsleiter Information Security / CISO</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>http://www.kwp.at</t>
+          <t>http://www.stw.at</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/robert-schwarz-a7353541/</t>
+          <t>https://www.linkedin.com/in/rene-schmid-bbb492/</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>manuel@granbichler.eu</t>
+          <t>lukas.wieser@myflexbox.com</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Manuel</t>
+          <t>Lukas</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Granbichler</t>
+          <t>Wieser</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Hypo Tirol Bank</t>
+          <t>myflexbox</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
+          <t>Salzburg, Salzburg, Austria</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>lukas.wieser@myflexbox.com</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Co-CEO &amp; Founder</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>manuel@granbichler.eu</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>CIO / Leiter IT</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Innsbruck, Tirol, Österreich · Hybrid</t>
-        </is>
-      </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>http://www.hypotirol.com</t>
+          <t>https://www.myflexbox.com</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/ing-manuel-granbichler-msc-50348690/</t>
+          <t>https://www.linkedin.com/in/lukaswieser/</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>otfried.cerwenka@vinzenzgruppe.at</t>
+          <t>jonathan.grothaus@myflexbox.com</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Otfried</t>
+          <t>Jonathan</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Cerwenka</t>
+          <t>Grothaus</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Vinzenz Gruppe</t>
+          <t>myflexbox</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Linz, Upper Austria, Austria</t>
+          <t>Greater Munich Metropolitan Area</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>otfried.cerwenka@vinzenzgruppe.at</t>
+          <t>jonathan.grothaus@myflexbox.com</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Leiter IT/ CIO</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr"/>
+          <t>Co-CEO, Founder</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Salzburg, Austria · Hybrid</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>https://vinzenzgruppe.at/datenschutz</t>
+          <t>https://www.myflexbox.com</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/otfried-cerwenka-66924727a/</t>
+          <t>https://www.linkedin.com/in/jongrothaus/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>florian.renner@hagleitner.com</t>
+          <t>robert.wollendorfer@chello.at</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Florian</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Renner</t>
+          <t>Wollendorfer</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Hagleitner Hygiene International</t>
+          <t>Privatier</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Zell am See, Salzburg, Austria</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>florian.renner@hagleitner.com</t>
-        </is>
-      </c>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>IT-Leiter / CIO</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Zell am See</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>http://www.hagleitner.com</t>
-        </is>
-      </c>
+          <t>Privatier</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/florian-renner-92973585/</t>
+          <t>https://www.linkedin.com/in/robert-wollendorfer-97720a3/</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>schuller.marco@gmail.com</t>
+          <t>herbert.wutti@c-stac.com</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Marco</t>
+          <t>Herbert</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Schuller</t>
+          <t>Wutti</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>KLINGER Gebetsroither</t>
+          <t>A. ö. Krankenhaus Spittal</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
+          <t>Hermagor-Pressegger See, Carinthia, Austria</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>herbert.wutti@c-stac.com</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>IT-Leiter</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Ober- und Niederösterreich · Hybrid</t>
-        </is>
-      </c>
+          <t>CIO</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>http://www.gebetsroither.at</t>
+          <t>https://www.khspittal.com</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/marco-schuller-3a0437a4/</t>
+          <t>https://www.linkedin.com/in/herbert-wutti-686b46106/</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>m.ivancsits@it4you.co.at</t>
+          <t>jsmichaelis@gmail.com</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Sebastian</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ivancsits</t>
+          <t>Michaelis</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Diözese Eisenstadt</t>
+          <t>TIWAG</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Klingenbach, Burgenland, Austria</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>m.ivancsits@it4you.co.at</t>
-        </is>
-      </c>
+          <t>Telfs, Tyrol, Austria</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>IT-Leiter</t>
+          <t>CIO</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Eisenstadt, Burgenland, Österreich</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>http://martinus.at</t>
-        </is>
-      </c>
+          <t>Innsbruck/Austria</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/martin-ivancsits-025434117/</t>
+          <t>https://www.linkedin.com/in/sebastianmichaelis/</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr"/>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>johannes.krenn@gmail.com</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Josef</t>
+          <t>Johannes</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Lechner</t>
+          <t>Krenn</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SENOPLAST Klepsch</t>
+          <t>Lagermax Lagerhaus und Speditions</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Salzburg, Salzburg, Austria</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>lechner_s@senoplast.com</t>
+          <t>johannes.krenn@lagermax.com</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>IT Leiter</t>
+          <t>CIO</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Piesendorf</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>https://www.lagermax.com</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/josef-lechner-06bb4938/</t>
+          <t>https://www.linkedin.com/in/johanneskrenn/</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>david.haselmann@gmail.com</t>
+          <t>rupert.schindler@aon.at</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Rupert</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Haselmann</t>
+          <t>Schindler</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Hausbetreuung Attensam</t>
+          <t>Energie Steiermark</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Vienna, Vienna, Austria</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>IT-Leiter</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr"/>
+          <t>CIO</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Graz</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>http://www.attensam.at</t>
+          <t>https://www.e-steiermark.com</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/david-haselmann-352a3321b/</t>
+          <t>https://www.linkedin.com/in/rupert-schindler-aab3372/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>m.hinterleitner@sol.at</t>
+          <t>gzarda@gmx.net</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Gerald</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Hinterleitner</t>
+          <t>Zarda</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Salzburg Wohnbau</t>
+          <t>TIGER Coatings</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Seekirchen Markt, Salzburg, Austria</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>m.hinterleitner@sol.at</t>
+          <t>gerald.zarda@trodat.net</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>IT-Leiter</t>
+          <t>Chief Information Officer</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Wels, Upper Austria, Austria · Hybrid</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>http://salzburg-wohnbau.at</t>
+          <t>https://www.tiger-coatings.com/</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/michael-hinterleitner-68a43395/</t>
+          <t>https://www.linkedin.com/in/geraldzarda/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>martin.leibetseder@delfortgroup.com</t>
+          <t>heimo.kern@neuroth.at</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Heimo</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Leibetseder</t>
+          <t>Kern</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Schachermayer Großhandelsgesellschaft m.b.H.</t>
+          <t>Neuroth International</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -2659,49 +2695,45 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>martin.leibetseder@delfortgroup.com</t>
+          <t>heimo.kern@neuroth.at</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Leiter IT</t>
+          <t>CIO</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Linz (Stadt), Oberösterreich, Österreich</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>https://www.schachermayer.at</t>
-        </is>
-      </c>
+          <t>Graz</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/martin-leibetseder-56622a9/</t>
+          <t>https://www.linkedin.com/in/heimo-kern-058a8940/</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>hannes.steinke@web.de</t>
+          <t>knud.spoerk@evg.com</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Hannes</t>
+          <t>Knud</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Steinke</t>
+          <t>Spörk</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Alicona Imaging</t>
+          <t>EVG Entwicklungs und Verwertungsgesellschaft</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -2713,84 +2745,84 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>hannes.steinke@alicona.com</t>
+          <t>knud.spoerk@evg.com</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>IT-Leiter</t>
+          <t>CIO</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Raaba</t>
+          <t>Raaba-Grambach</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>http://www.alicona.com</t>
+          <t>https://evg.com/</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/hannes-steinke-b174578b/</t>
+          <t>https://www.linkedin.com/in/knud-spörk-7aa576aa/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>roland.schauer@gmx.at</t>
+          <t>alexander.ietan@kremsmueller.com</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Alexander</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Schauer</t>
+          <t>Ietan</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Steinbach International</t>
+          <t>Kremsmueller Group</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Schwertberg, Upper Austria, Austria</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr"/>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>alexander.ietan@kremsmueller.com</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>IT-Leiter</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Schwertberg, Oberösterreich, Österreich</t>
-        </is>
-      </c>
+          <t>CIO</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>https://www.steinbach-group.com</t>
+          <t>http://www.kremsmueller.com</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/roland-schauer-9909b31b4/</t>
+          <t>https://www.linkedin.com/in/ietan/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>christian.muehlthaler@outlook.com</t>
+          <t>cp@westbahn.at</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2800,270 +2832,258 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Mühlthaler</t>
+          <t>Pettauer</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Tauernklinikum</t>
+          <t>WESTbahn Management</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Zell am See, Salzburg, Austria</t>
+          <t>Vienna, Vienna, Austria</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>christian.muhlthaler@tauernklinikum.at</t>
+          <t>cp@westbahn.at</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>IT-Leiter</t>
+          <t>CIO</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Zell am See, Salzburg, Österreich</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>https://www.tauernklinikum.at/ueber-uns/datenschutz</t>
-        </is>
-      </c>
+          <t>Wien, Österreich</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/christian-mühlthaler-aab94717/</t>
+          <t>https://www.linkedin.com/in/christian-pettauer-ba697895/</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ch.tschaudi@outlook.at</t>
+          <t>dieter.burget@statistik.gv.at</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Christoph</t>
+          <t>Dieter</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Tschaudi</t>
+          <t>Burget</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>RHZ Bau</t>
+          <t>Statistics Austria</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Salzburg, Salzburg, Austria</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>dieter.burget@statistik.gv.at</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>IT-Leiter</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Salzburg, Österreich · On-site</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>https://www.brandl-rhz.com</t>
-        </is>
-      </c>
+          <t>CIO</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/christoph-tschaudi-b993b212a/</t>
+          <t>https://www.linkedin.com/in/dieter-burget-292b095/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>c.ott@cvg.cc</t>
+          <t>w.retschitzegger@hainzl.at</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Christoph</t>
+          <t>Wolfgang</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Ott</t>
+          <t>Retschitzegger</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Weingärtner Maschinenbau</t>
+          <t>HAINZL INDUSTRIESYSTEME</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Gunskirchen, Upper Austria, Austria</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>c.ott@cvg.cc</t>
+          <t>w.retschitzegger@hainzl.at</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>IT-Leiter</t>
+          <t>CIO</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>http://www.weingartner.com</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/christoph-ott-6510731b3/</t>
+          <t>https://www.linkedin.com/in/wolfgang-retschitzegger-375803/</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>georg.list@rtr.at</t>
+          <t>josef.baumann-rott@agilox.net</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Georg</t>
+          <t>Josef</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>List</t>
+          <t>Baumann-Rott</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>RTR</t>
+          <t>AGILOX Services</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Vienna, Vienna, Austria</t>
+          <t>Aichkirchen, Upper Austria, Austria</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>georg.list@rtr.at</t>
+          <t>josef.baumann-rott@agilox.net</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Leiter IT</t>
+          <t>Geschäftsführer</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Wien, Österreich</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>https://www.rtr.at/</t>
-        </is>
-      </c>
+          <t>Atlanta, Georgia, Vereinigte Staaten von Amerika</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/georg-list-772678220/</t>
+          <t>https://www.linkedin.com/in/josef-baumann-rott-1b5ba169/</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>gdygruber@gmail.com</t>
+          <t>manfred.pock@gmail.com</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Gerald</t>
+          <t>Manfred</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Dygruber</t>
+          <t>Pock</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Alpen-Maykestag</t>
+          <t>ASTOTEC</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hallein, Salzburg, Austria</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
+          <t>Baden, Lower Austria, Austria</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>manfred.pock@hirtenberger.com</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>IT-Leiter</t>
+          <t>Geschäftsführer</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Puch bei Hallein, Salzburg, Österreich</t>
+          <t>Hirtenberg, Niederösterreich, Österreich</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>https://www.a-mk.com</t>
+          <t>http://www.astotec.com</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/gerald-dygruber-8a6927233/</t>
+          <t>https://www.linkedin.com/in/manfred-pock-36b06529/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>drummer1070@a1.net</t>
+          <t>gasteiger.a@milch.com</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Markus</t>
+          <t>Andreas</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Reischl</t>
+          <t>Gasteiger</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Kröswang</t>
+          <t>SalzburgMilch</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -3073,189 +3093,197 @@
           <t>Austria</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>gasteiger.a@milch.com</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>IT-Leiter</t>
+          <t>Geschäftsführer</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>http://www.kroeswang.at</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/markus-reischl-3062063a/</t>
+          <t>https://www.linkedin.com/in/andreas-gasteiger-232bba83/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ingomar.gaksch@gaw.at</t>
+          <t>kurt.ternegg@icloud.com</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ingomar</t>
+          <t>Kurt</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Gaksch</t>
+          <t>Ternegg</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>GAW technologies</t>
+          <t>Familienunternehmen</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Bad Vöslau, Lower Austria, Austria</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>ingomar.gaksch@gaw.at</t>
+          <t>kurt.ternegg@bdi-biolifescience.com</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>it-leiter</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr"/>
+          <t>Auf aktiver Suche nach einer neuen Wirkungsstätte</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>2540 Bad Vöslau, Niederösterreich, Österreich</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/ingomar-gaksch-9b004ab7/</t>
+          <t>https://www.linkedin.com/in/kurt-ternegg-82680026/</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>patrick.osika@drei.at</t>
+          <t>p.freigassner@hage.at</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Peter</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Osika</t>
+          <t>Freigassner-Sanchez</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ANKÖ</t>
+          <t>HAGE Sondermaschinenbau</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Vienna, Vienna, Austria</t>
+          <t>Obdach, Styria, Austria</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>patrick.osika@drei.at</t>
+          <t>p.freigassner@hage.at</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>IT-Leiter</t>
+          <t>Geschäftsführer</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>https://www.ankoe.at</t>
+          <t>http://www.hage.at</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/patrick-osika-4433a5212/</t>
+          <t>https://www.linkedin.com/in/peter-freigassner-sanchez-54a63b223/</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr"/>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>s.meinschad@hollu.com</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Simon</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Ninaus</t>
+          <t>Meinschad</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Röhren und Pumpenwerk Bauer</t>
+          <t>hollu Systemhygiene</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Voitsberg, Styria, Austria</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>m.ninaus@bauer-at.com</t>
+          <t>s.meinschad@hollu.com</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>IT-Leiter</t>
+          <t>Geschäftsführer</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Voitsberg, Steiermark, Österreich</t>
+          <t>Zirl, Tirol, Österreich · On-site</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>http://www.bauer-at.com</t>
+          <t>https://www.hollu.com/</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/michael-ninaus-8154aa43/</t>
+          <t>https://www.linkedin.com/in/simon-meinschad-08933483/</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>rudipostel@gmail.com</t>
+          <t>dominic.weiss@gmx.net</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Rudolf</t>
+          <t>Dominic</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Postel</t>
+          <t>Weiss</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Schönbrunner Tiergarten GesmbH</t>
+          <t>Wirtschaftsagentur Wien</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -3268,265 +3296,265 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>IT-Leiter</t>
+          <t>Geschäftsführer</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>On-site</t>
+          <t>Wien, Österreich · On-site</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>http://www.zoovienna.at</t>
+          <t>https://wirtschaftsagentur.at/</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/rudolf-postel-337612230/</t>
+          <t>https://www.linkedin.com/in/dominic-weiss-87796a90/</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>handl@handl.at</t>
+          <t>michael.holy@messergroup.com</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Andreas</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Hacker</t>
+          <t>Holy</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>seele</t>
+          <t>Messer Austria</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Gumpoldskirchen, Lower Austria, Austria</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>handl@handl.at</t>
+          <t>michael.holy@messergroup.com</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>IT-Leiter</t>
+          <t>Geschäftsführer</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Schörfling am Attersee, Oberösterreich, Österreich</t>
+          <t>Gumpoldskirchen</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>https://seele.com/legal-notice</t>
+          <t>https://www.messer.at/</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/andreas-hacker-b4b87476/</t>
+          <t>https://www.linkedin.com/in/michael-holy-b1800064/</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>manfred.prehsegger@berglandmilch.at</t>
+          <t>michael.roetzer@dieerfolgswerkstatt.com</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Manfred</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Prehsegger</t>
+          <t>Roetzer</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Berglandmilch eGen</t>
+          <t>Ortner Reinraumtechnik</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Wiesbaden, Hesse, Germany</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>manfred.prehsegger@berglandmilch.at</t>
+          <t>michael.roetzer@dieerfolgswerkstatt.com</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>IT-Leiter</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr"/>
+          <t>Geschäftsführer</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Deutschland</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>http://www.berglandmilch.at</t>
+          <t>http://www.ortner-group.com/</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/manfred-prehsegger-a6399610b/</t>
+          <t>https://www.linkedin.com/in/michaelroetzer/</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr"/>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>heinz.quatember@gmx.net</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Heinz</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Pfeiffer</t>
+          <t>Quatember</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>WINZER KREMS eG</t>
+          <t>Porsche Inter Auto</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>thomas@thomas-pfeiffer.net</t>
-        </is>
-      </c>
+          <t>Linz, Upper Austria, Austria</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>IT-Leiter</t>
+          <t>Geschäftsführer</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Krems an der Donau (Stadt), Niederösterreich, Österreich</t>
+          <t>Porsche Linz-Industriezeile</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>http://www.winzerkrems.at</t>
+          <t>www.porscheinterauto.at</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/thomas-pfeiffer-1381a732/</t>
+          <t>https://www.linkedin.com/in/heinz-quatember-6978a9252/</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>georg.stuhlberger@gmx.at</t>
+          <t>kevin.theuermann@gmail.com</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Georg</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Stuhlberger</t>
+          <t>Theuermann</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>PALME Duschabtrennungen</t>
+          <t>GL Pharma</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Greater Graz</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>IT-Leiter</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Taufkirchen an der Pram</t>
-        </is>
-      </c>
+          <t>Chief Information Security Officer</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>http://www.palme.com</t>
+          <t>gl-pharma.com</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/georg-stuhlberger-246b50109/</t>
+          <t>https://www.linkedin.com/in/kevin-theuermann-449a43b5/</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>gerhard@rutschek.at</t>
+          <t>simon.bluma@kwp.at</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Gerhard</t>
+          <t>Simon</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Rutschek</t>
+          <t>Bluma</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>WEKA</t>
+          <t>Häuser zum Leben</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Neulengbach, Lower Austria, Austria</t>
+          <t>Vienna, Vienna, Austria</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>gerhard@rutschek.at</t>
+          <t>simon.bluma@kwp.at</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>IT-Leiter</t>
+          <t>Stellvertretender Geschäftsführer</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3536,176 +3564,180 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>http://www.weka-group.com</t>
+          <t>http://www.kwp.at</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/gerhard-rutschek-69221488/</t>
+          <t>https://www.linkedin.com/in/simon-bluma/</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ferklchris@gmail.com</t>
+          <t>kushtrimhajzeri93@gmail.com</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Kushtrim</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Ferkl</t>
+          <t>Hajzeri</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>TEST-FUCHS</t>
+          <t>Kathrein Privatbank</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Waldenstein, Lower Austria, Austria</t>
+          <t>Vienna, Vienna, Austria</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>IT-Leiter</t>
+          <t>Head of IT</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>http://www.kathrein.at</t>
+        </is>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/christopher-ferkl-3bba59237/</t>
+          <t>https://www.linkedin.com/in/kushtrimhajzeri/</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>erich.koeck@gmx.at</t>
+          <t>andreas.binder@live.at</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Erich</t>
+          <t>Andreas</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Köck</t>
+          <t>Binder</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>BBRZ Reha</t>
+          <t>Fritz Holter</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>erich@wozabal.com</t>
-        </is>
-      </c>
+          <t>Wels, Upper Austria, Austria</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Leiter IT</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr"/>
+          <t>Head of IT</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Wels (Stadt), Oberösterreich, Österreich</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>https://www.bbrz.at/de/bbrz</t>
+          <t>http://www.holter.at</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/erich-köck-62067010b/</t>
+          <t>https://www.linkedin.com/in/andreas-binder-31b8b931/</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>bernhard_ederer@hotmail.com</t>
+          <t>kulcke@gmx.de</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Bernhard</t>
+          <t>Stefan</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Ederer</t>
+          <t>Kulcke</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Novogenia</t>
+          <t>Thöni Industriebetriebe</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Göming, Salzburg, Austria</t>
+          <t>Innsbruck, Tyrol, Austria</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>IT-Leiter</t>
+          <t>Head of IT / Leiter IT</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Eugendorf, Salzburg, Österreich · Hybrid</t>
+          <t>Telfs, Tirol, Österreich</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>https://novogenia.com</t>
+          <t>https://www.thoeni.com/</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/bernhard-ederer-406924297/</t>
+          <t>https://www.linkedin.com/in/stefan-kulcke-b268374/</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>gerald.thallauer@gmail.com</t>
+          <t>helmut.giritzer@gmail.com</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Gerald</t>
+          <t>Helmut</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Thallauer</t>
+          <t>Giritzer</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>CS Caritas Socialis</t>
+          <t>EE Elektronik Ges.m.b.H.</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -3718,136 +3750,144 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>IT-Leiter</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+          <t>Leiter IT Infrastruktur und Sicherheit</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Engerwitzdorf</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>https://www.epluse.com</t>
+        </is>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/gerald-thallauer-ab5685250/</t>
+          <t>https://www.linkedin.com/in/helmut-giritzer-772497113/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>franz.rockenschaub@item-international.at</t>
+          <t>weidinger.christoph@gmail.com</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Franz</t>
+          <t>Christoph</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Rockenschaub</t>
+          <t>Weidinger</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>item international Handel</t>
+          <t>BG-Graspointner</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Marchtrenk, Upper Austria, Austria</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>franz.rockenschaub@item-international.at</t>
-        </is>
-      </c>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>IT-Leiter</t>
+          <t>Head of IT / IT Leiter</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>https://www.bg-graspointner.com/en-at</t>
+        </is>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/franz-rockenschaub-a04361282/</t>
+          <t>https://www.linkedin.com/in/christoph-weidinger-78b086a3/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>armin.vadlejch@vadi.at</t>
+          <t>hans.berger@porsche.co.at</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Armin</t>
+          <t>Hans</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Vadlejch</t>
+          <t>Berger</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Manstein Verlag</t>
+          <t>Porsche Inter Auto GmbH &amp; Co.KG</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Hainfeld, Lower Austria, Austria</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>armin.vadlejch@vadi.at</t>
+          <t>hans.berger@porsche.co.at</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Leiter IT &amp; Fuhrpark</t>
+          <t>Leiter IT / Head of IT</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Wien, Österreich · Hybrid</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>https://manstein.at/</t>
+          <t>www.porscheinterauto.at</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/armin-vadlejch/</t>
+          <t>https://www.linkedin.com/in/hans-berger-5a974a25/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>martin.urwaleck@gmail.com</t>
+          <t>mroth@kabsi.at</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Urwaleck</t>
+          <t>Roth</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Pharmazeutische Gehaltskasse für Österreich</t>
+          <t>Fresenius Health Services IT</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -3859,269 +3899,6139 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>martin.urwaleck@eduscho.at</t>
+          <t>mroth@kabsi.at</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>IT Leiter</t>
+          <t>Stv. Leitung IT-Infrastruktur</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Wien</t>
+          <t>Vienna, Austria · On-site</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/martin-urwaleck-6476b749/</t>
+          <t>https://www.linkedin.com/in/michaelroth/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>misko.lazarevic@outlook.com</t>
+          <t>r.schwarz@blackstream.eu</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Miško</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Lazarević</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+          <t>Schwarz</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Kuratorium Wiener Pensionisten-Wohnhäuser</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Engelhartstetten, Lower Austria, Austria</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>r.schwarz@blackstream.eu</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>IT-Leiter / CIO</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Schwadorf, Niederösterreich, Österreich · On-site</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr"/>
+          <t>Wien, Österreich</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>http://www.kwp.at</t>
+        </is>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/miško-lazarević/</t>
+          <t>https://www.linkedin.com/in/robert-schwarz-a7353541/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>florian@mediapool.video</t>
+          <t>manuel@granbichler.eu</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Florian</t>
+          <t>Manuel</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Semmler</t>
+          <t>Granbichler</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>mediapool mvp</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>+43463503318</t>
-        </is>
-      </c>
+          <t>Hypo Tirol Bank</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Graz, Steiermark, Österreich</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>florian@mediapool.video</t>
+          <t>manuel@granbichler.eu</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Geschäftsführer &amp; Founder</t>
+          <t>CIO / Leiter IT</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Villach, Kärnten, Österreich</t>
+          <t>Innsbruck, Tirol, Österreich · Hybrid</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>http://www.fh-kaernten.at</t>
+          <t>http://www.hypotirol.com</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/florian-semmler/</t>
+          <t>https://www.linkedin.com/in/ing-manuel-granbichler-msc-50348690/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>verenalisa.schiller@gmail.com</t>
+          <t>otfried.cerwenka@vinzenzgruppe.at</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Verena</t>
+          <t>Otfried</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Schiller</t>
+          <t>Cerwenka</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Tyromotion</t>
+          <t>Vinzenz Gruppe</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Graz, Steiermark, Österreich</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr"/>
+          <t>Linz, Upper Austria, Austria</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>otfried.cerwenka@vinzenzgruppe.at</t>
+        </is>
+      </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Graz, Styria, Austria · Vor Ort</t>
-        </is>
-      </c>
+          <t>Leiter IT/ CIO</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
-          <t>http://www.tyromotion.com</t>
+          <t>https://vinzenzgruppe.at/datenschutz</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/verena-lisa-schiller-19508a7/</t>
+          <t>https://www.linkedin.com/in/otfried-cerwenka-66924727a/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>alexander.topf@mci-austria.com</t>
+          <t>florian.renner@hagleitner.com</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Alexander</t>
+          <t>Florian</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Topf</t>
+          <t>Renner</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>MCI Mining Construction International</t>
+          <t>Hagleitner Hygiene International</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Graz, Steiermark, Österreich</t>
+          <t>Zell am See, Salzburg, Austria</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>alexander.topf@mci-austria.com</t>
+          <t>florian.renner@hagleitner.com</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Deputy to CEO</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr"/>
+          <t>IT-Leiter / CIO</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Zell am See</t>
+        </is>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>https://www.mci-austria.com/</t>
+          <t>http://www.hagleitner.com</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/alexander-topf-06461b1a8/</t>
+          <t>https://www.linkedin.com/in/florian-renner-92973585/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>f.soellhinger@gmail.com</t>
+          <t>schuller.marco@gmail.com</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Franz</t>
+          <t>Marco</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Soellhinger</t>
+          <t>Schuller</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Geroldinger</t>
+          <t>KLINGER Gebetsroither</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Österreich</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Ober- und Niederösterreich · Hybrid</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>http://www.gebetsroither.at</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/marco-schuller-3a0437a4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>m.ivancsits@it4you.co.at</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Ivancsits</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Diözese Eisenstadt</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Klingenbach, Burgenland, Austria</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>m.ivancsits@it4you.co.at</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Eisenstadt, Burgenland, Österreich</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>http://martinus.at</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/martin-ivancsits-025434117/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>lechner_s@senoplast.com</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Josef</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Lechner</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>SENOPLAST Klepsch</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>lechner_s@senoplast.com</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>IT Leiter</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Piesendorf</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/josef-lechner-06bb4938/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>david.haselmann@gmail.com</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Haselmann</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Hausbetreuung Attensam</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Vienna, Vienna, Austria</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>http://www.attensam.at</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/david-haselmann-352a3321b/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>m.hinterleitner@sol.at</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Hinterleitner</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Salzburg Wohnbau</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Seekirchen Markt, Salzburg, Austria</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>m.hinterleitner@sol.at</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>http://salzburg-wohnbau.at</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/michael-hinterleitner-68a43395/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>martin.leibetseder@a1.net</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Leibetseder</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Schachermayer Großhandelsgesellschaft m.b.H.</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>martin.leibetseder@delfortgroup.com</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Leiter IT</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Linz (Stadt), Oberösterreich, Österreich</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>https://www.schachermayer.at</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/martin-leibetseder-56622a9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>hannes.steinke@web.de</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Hannes</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Steinke</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Alicona Imaging</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>hannes.steinke@alicona.com</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Raaba</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>http://www.alicona.com</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/hannes-steinke-b174578b/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>roland.schauer@gmx.at</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Roland</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Schauer</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Steinbach International</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Schwertberg, Upper Austria, Austria</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Schwertberg, Oberösterreich, Österreich</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>https://www.steinbach-group.com</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/roland-schauer-9909b31b4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>christian.muehlthaler@outlook.com</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Mühlthaler</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Tauernklinikum</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Zell am See, Salzburg, Austria</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>christian.muhlthaler@tauernklinikum.at</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Zell am See, Salzburg, Österreich</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>https://www.tauernklinikum.at/ueber-uns/datenschutz</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/christian-mühlthaler-aab94717/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>ch.tschaudi@outlook.at</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Christoph</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Tschaudi</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>RHZ Bau</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Salzburg, Salzburg, Austria</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Salzburg, Österreich · On-site</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>https://www.brandl-rhz.com</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/christoph-tschaudi-b993b212a/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>c.ott@cvg.cc</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Christoph</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Ott</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Weingärtner Maschinenbau</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Gunskirchen, Upper Austria, Austria</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>c.ott@cvg.cc</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>http://www.weingartner.com</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/christoph-ott-6510731b3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>georg.list@rtr.at</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Georg</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>List</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>RTR</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Vienna, Vienna, Austria</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>georg.list@rtr.at</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Leiter IT</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Wien, Österreich</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>https://www.rtr.at/</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/georg-list-772678220/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>gdygruber@gmail.com</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Gerald</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Dygruber</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Alpen-Maykestag</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Hallein, Salzburg, Austria</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Puch bei Hallein, Salzburg, Österreich</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>https://www.a-mk.com</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/gerald-dygruber-8a6927233/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>drummer1070@a1.net</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Markus</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Reischl</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Kröswang</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>http://www.kroeswang.at</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/markus-reischl-3062063a/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ingomar.gaksch@gaw.at</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Ingomar</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Gaksch</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>GAW technologies</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>ingomar.gaksch@gaw.at</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>it-leiter</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/ingomar-gaksch-9b004ab7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>patrick.osika@drei.at</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Patrick</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Osika</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>ANKÖ</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Vienna, Vienna, Austria</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>patrick.osika@drei.at</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>https://www.ankoe.at</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/patrick-osika-4433a5212/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>michael.ninaus@gmail.com</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Ninaus</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Röhren und Pumpenwerk Bauer</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Voitsberg, Styria, Austria</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>m.ninaus@bauer-at.com</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Voitsberg, Steiermark, Österreich</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>http://www.bauer-at.com</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/michael-ninaus-8154aa43/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>rudipostel@gmail.com</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Rudolf</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Postel</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Schönbrunner Tiergarten GesmbH</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Vienna, Vienna, Austria</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>On-site</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>http://www.zoovienna.at</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/rudolf-postel-337612230/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>handl@handl.at</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Andreas</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Hacker</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>seele</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>handl@handl.at</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Schörfling am Attersee, Oberösterreich, Österreich</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>https://seele.com/legal-notice</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/andreas-hacker-b4b87476/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>manfred.prehsegger@berglandmilch.at</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Manfred</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Prehsegger</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Berglandmilch eGen</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>manfred.prehsegger@berglandmilch.at</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>http://www.berglandmilch.at</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/manfred-prehsegger-a6399610b/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>thomas@thomas-pfeiffer.net</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Pfeiffer</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>WINZER KREMS eG</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>thomas@thomas-pfeiffer.net</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Krems an der Donau (Stadt), Niederösterreich, Österreich</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>http://www.winzerkrems.at</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/thomas-pfeiffer-1381a732/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>georg.stuhlberger@gmx.at</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Georg</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Stuhlberger</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>PALME Duschabtrennungen</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Taufkirchen an der Pram</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>http://www.palme.com</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/georg-stuhlberger-246b50109/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>gerhard@rutschek.at</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Gerhard</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Rutschek</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>WEKA</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Neulengbach, Lower Austria, Austria</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>gerhard@rutschek.at</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Wien, Österreich</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>http://www.weka-group.com</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/gerhard-rutschek-69221488/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>ferklchris@gmail.com</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Christopher</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Ferkl</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>TEST-FUCHS</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Waldenstein, Lower Austria, Austria</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/christopher-ferkl-3bba59237/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>erich.koeck@gmx.at</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Erich</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Köck</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>BBRZ Reha</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>erich@wozabal.com</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Leiter IT</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>https://www.bbrz.at/de/bbrz</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/erich-köck-62067010b/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>bernhard_ederer@hotmail.com</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Bernhard</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Ederer</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Novogenia</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Göming, Salzburg, Austria</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Eugendorf, Salzburg, Österreich · Hybrid</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>https://novogenia.com</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/bernhard-ederer-406924297/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>gerald.thallauer@gmail.com</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Gerald</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Thallauer</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>CS Caritas Socialis</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/gerald-thallauer-ab5685250/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>franz.rockenschaub@item-international.at</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Franz</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Rockenschaub</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>item international Handel</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Marchtrenk, Upper Austria, Austria</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>franz.rockenschaub@item-international.at</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/franz-rockenschaub-a04361282/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>armin.vadlejch@vadi.at</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Armin</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Vadlejch</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Manstein Verlag</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Hainfeld, Lower Austria, Austria</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>armin.vadlejch@vadi.at</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Leiter IT &amp; Fuhrpark</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Wien, Österreich · Hybrid</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>https://manstein.at/</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/armin-vadlejch/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>martin.urwaleck@gmail.com</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Urwaleck</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Pharmazeutische Gehaltskasse für Österreich</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Vienna, Vienna, Austria</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>martin.urwaleck@eduscho.at</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>IT Leiter</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Wien</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/martin-urwaleck-6476b749/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>ludwig@seidl.co</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Seidl</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Ludwig</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Die Wiener Volkshochschulen</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>ludwig@seidl.co</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>IT Leiter</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/seidl-ludwig-1ab816b3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>pawlik_christian@yahoo.de</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Pawlik</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Dopgas</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Kirchbichl, Tyrol, Austria</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>IT-Leitung</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/christian-pawlik-bab454b0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>thomas.weichselbaumer@haup.ac.at</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Weichselbaumer</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Hochschule für Agrar und Umweltpädagogik</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Waidmannsfeld, Lower Austria, Austria</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>thomas.weichselbaumer@haup.ac.at</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>www.haup.ac.at</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/thomas-weichselbaumer-8b8698100/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>misko.lazarevic@outlook.com</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Miško</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Lazarević</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Engelhartstetten, Lower Austria, Austria</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Schwadorf, Niederösterreich, Österreich · On-site</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/miško-lazarević/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>robert.fizimayer@elk.at</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Fizimayer</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>ELK</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Zöbing an der Raab, Styria, Austria</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>robert.fizimayer@elk.at</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Schrems, Niederösterreich, Österreich · Hybrid</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>http://www.elk.at</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/robert-fizimayer-7a27b1172/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>gregrech@live.at</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Gregor</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Rechberger</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>STRASSER Steine</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Rohrbach, Upper Austria, Austria</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Sankt Martin im Mühlkreis, Oberösterreich, Österreich · On-site</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>http://www.strasser-steine.at</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/gregor-rechberger-1b02371a5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>robert.heinz.hacker@gmail.com</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Hacker</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>G. Englmayer</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Wels, Upper Austria, Austria</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>https://www.englmayer.net</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/robert-hacker-b0a7a723a/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>mapi4300@a1.net</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Manfred</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Pirner</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>PEM Gesellschaft m.b.H.</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Mauthausen, Oberösterreich, Österreich</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>http://www.pem.com</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/manfred-pirner-024835a7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>marco.loretz@stadtwerke-feldkirch.at</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Marco</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Loretz</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Stadtwerke Feldkirch</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>marco.loretz@stadtwerke-feldkirch.at</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/marco-loretz-ab9990ba/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>joern.ersfeld@web.de</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Jörn</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Ersfeld</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Wipark Garagen</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Vienna, Vienna, Austria</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Wien</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/jörn-ersfeld-43071597/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>j.widhalm@ecoplus.at</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Jürgen</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Widhalm</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>ecoplus. Niederösterreichs Wirtschaftsagentur</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>j.widhalm@ecoplus.at</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>http://www.ecoplus.at</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/jürgen-widhalm-02542897/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>christoph.reiter@jba.gv.at</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Christoph</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Reiter</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>CERHA HEMPEL</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>St Pölten, Lower Austria, Austria</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>christoph.reiter@jba.gv.at</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Wien, Österreich · On-site</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>http://www.cerhahempel.com</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/christoph-reiter-964240156/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>raphael.zwicknagl@gmx.at</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Raphael</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Transped Group</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Kufstein, Tyrol, Austria</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Head of IT-Services</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Wörgl · On-site</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/raphael-z-3b7381253/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>werner.diewald@prangl.at</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Werner</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Diewald</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Prangl</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Vienna, Vienna, Austria</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>werner.diewald@prangl.at</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Leiter IT</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Brunn am Gebirge</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>http://www.prangl.at</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/werner-diewald-92a588103/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>roman.haselsberger@bkh-kufstein.at</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Roman</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Haselsberger</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>A.ö. Bezirkskrankenhaus Kufstein</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Kufstein, Tyrol, Austria</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>roman.haselsberger@bkh-kufstein.at</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Kufstein</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/rhaselsberger/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>oliverfmklein@gmail.com</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Oliver</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Klein</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>AccessiWay Germany</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Vienna, Vienna, Austria</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>https://www.accessiway.com/</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/oliverfmklein/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>philipp@chocholous.at</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Philipp</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Chocholous</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Suchthilfe Wien</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Vienna, Vienna, Austria</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>philipp@chocholous.at</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Leiter IT</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Wien, Österreich · On-site</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>https://www.suchthilfe.wien/</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/philipp-chocholous-976b4b113/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>sv@via-donau.org</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Slobodan</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Vucinic</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>viadonau</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>sv@via-donau.org</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>IT Leiter</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Wien, Österreich · On-site</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>http://www.viadonau.org</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/slobodan-vucinic-9942909a/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>michael.wurzenrainer@bemo.net</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Wurzenrainer</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>BeMo Tunnelling</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Innsbruck, Tyrol, Austria</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>michael.wurzenrainer@bemo.net</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Tirol, Österreich</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>http://www.bemo.net</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/michael-wurzenrainer-ab69b715b/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>michael.geringer@pittel.at</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Geringer</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>PittelBrausewetter</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Vienna, Vienna, Austria</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>michael.geringer@pittel.at</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Leiter IT</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Wien</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/michael-geringer-640a4425/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>m.zuba@wozabal.com</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Zuba</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>x-technik IT &amp; Medien</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Linz, Upper Austria, Austria</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>m.zuba@wozabal.com</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>http://www.x-technik.com</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/mzuba/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>frieder.schuschnig@ankerbrot.at</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Frieder</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Schuschnig</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Ankerbrot</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Vienna, Vienna, Austria</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>frieder.schuschnig@ankerbrot.at</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Wien, Österreich</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>http://www.ankerbrot.at/</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/frieder-schuschnig-562b7a242/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>jens.schiefer@180amsterdam.com</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Jens</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Schiefer</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>AMST-Systemtechnik</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>jens.schiefer@180amsterdam.com</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Ranshofen · On-site</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>http://www.amst.at</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/jens-schiefer-3836aa76/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>christian-steiner@gmx.at</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Steiner</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>HENNLICH Österreich</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Schärding, Oberösterreich, Österreich · Hybrid</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>https://www.hennlich.at</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/christian-steiner-232273121/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>christophfleckl@gmx.at</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Christoph</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Fleckl</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Bussetti</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Vienna, Vienna, Austria</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Wien, Österreich</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>http://www.bussetti.at</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/christoph-fleckl-150a9541/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>bernd.brunner@bb-solution.at</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Bernd</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Brunner</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Autohaus Göndle</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>bernd.brunner@bb-solution.at</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>St. Pölten, Niederösterreich, Österreich</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>www.goendle.at</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/bernd-brunner-11a3baa4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>f.rindberger@rauch-import.at</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Florian</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Rindberger</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>UFP Austria</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Mondsee, Upper Austria, Austria</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>f.rindberger@rauch-import.at</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>IT-Leiter</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Mondsee</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>https://www.ufp.at</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/florian-rindberger-28168415b/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>mas.projektion@gmail.com</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Schneider</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Bundeskanzleramt Österreich</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Vienna, Vienna, Austria</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Digital Transformation Manager</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Wien, Österreich</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>http://www.bundeskanzleramt.gv.at</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/thomas-schneider-code-intuitif/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>hakan.kalinyaprak@gmail.com</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Kalinyaprak</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Tchibo Österreich</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Vienna, Vienna, Austria</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Head of IT</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Wien, Österreich · Hybrid</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>https://tchibo.at</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/hakan-kalinyaprak-20954226b/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>mario.ploder@solutions2000.at</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Ploder</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Hefel Textil</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Hard, Vorarlberg, Austria</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>mario.ploder@solutions2000.at</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Head of IT</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Schwarzach, Vorarlberg, Österreich</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/marioploder/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>hannes.puckmair@gmx.at</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Hannes</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Puckmair</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>G. Klampfer Building Services</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Leonding, Upper Austria, Austria</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Head of IT</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Leonding, Oberösterreich, Österreich · On-site</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>http://klampfer.at</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/hannes-puckmair-35941a70/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>peter.krainer@intact-systems.com</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Peter</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Krainer</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Intact Systems</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Leibnitz, Styria, Austria</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>peter.krainer@intact-systems.com</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Head of IT</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>https://intact-systems.com</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/peter-krainer-966112144/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>wpk@penk.at</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Wolfgang</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Penk</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Daimler Truck Austria</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>wpk@penk.at</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Head of IT</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Eugendorf, Salzburg, Österreich</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>https://www.mercedes-benz-trucks.com/de_AT/home.html</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/wolfgang-penk-928304/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>zeljko.markovic@ingrammicro.at</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Zeljko</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Markovic</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Ingram Micro Österreich</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Vienna, Vienna, Austria</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>zeljko.markovic@ingrammicro.at</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Head of IT</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>https://at.ingrammicro.com/</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/zeljko-markovic-b9bb4b104/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>jens.schwindt@simcharacters.com</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Jens-Christian</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Schwindt</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>SIMCharacters Training</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>jens.schwindt@simcharacters.com</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>http://www.simcharacters.com</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/jens-christian-schwindt-2101486b/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>irene.fialka@inits.at</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Irene</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Fialka</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>INiTS</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>irene.fialka@inits.at</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
           <t>Chief Executive Officer</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>Vienna, Austria</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/irenefialka/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>christian.kern@interfloat.com</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Kern</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>ELL</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>christian.kern@interfloat.com</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Wien, München</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>https://www.ell-group.com</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/christian-kern-924586176/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>hansjoerg.klapf@karrernet.at</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Hans-Joerg</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Klapf</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>CEng</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>hansjoerg.klapf@karrernet.at</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Allgemein beeideter und gerichtlich zertifizierter Sachverständiger (Chartered Engineer)</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>A-4490 St. Florian</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/hans-joerg-klapf-ba586057/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>gerald@urban-future.org</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Gerald</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Babel-Sutter</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Urban Future.</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>gerald@urban-future.org</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Co-Founder &amp; CEO</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>Austria · Vor Ort</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>https://www.urban-future.org</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/urbanfuture/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>florian@mediapool.video</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Florian</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Semmler</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>mediapool mvp</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>+43463503318</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Graz, Steiermark, Österreich</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>florian@mediapool.video</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Geschäftsführer &amp; Founder</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>Villach, Kärnten, Österreich</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>http://www.fh-kaernten.at</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/florian-semmler/</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>stevan.radonjanin@gmail.com</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Stevan</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Radonjanin</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Veli</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>stevan.radonjanin@sberbank.at</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Co-founder &amp; CEO</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>http://veli.io/</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/stevan-radonjanin/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>michel.szczepanski@premiumpack.at</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Michel</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Szczepanski</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>PREMIUMPACK</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Gerasdorf bei Wien, Niederösterreich, Österreich</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>michel.szczepanski@premiumpack.at</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>http://www.premiumpack.at</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/michel-szczepanski-127242b8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>werner.pamminger@gmail.com</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Werner</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Pamminger</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Business Upper Austria</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>werner.pamminger@clusterland.at</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Linz, Austria</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>http://www.biz-up.at</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/werner-pamminger-203886/</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>bernd@leitsoni.com</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Bernd</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Leitsoni</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>RIFFBIRD</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>bernd@leitsoni.com</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>CEO &amp; Co-Founder</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>http://www.ticonsulting.io/</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/leitsoni/</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>patryk.hopenthaler@hlg.at</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Patryk</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Hopenthaler</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Hermes Logistik Österreich</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Schwechat, Niederösterreich, Österreich</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>patryk.hopenthaler@hlg.at</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>Schwechat</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>www.myhermes.at</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/patryk-hopenthaler-ba26a7233/</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>schultz@hochzillertal.com</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Martha</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Schultz</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Schultz Gruppe</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>schultz@hochzillertal.com</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Wien, Österreich</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>http://www.juliusraabstiftung.at</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/marthaschultz/</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>pauer@reploid.eu</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Philip</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Pauer</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>REPLOID Group</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>pauer@reploid.eu</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>CEO - Vorsitzender des Vorstands</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Österreich · Vor Ort</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/philip-pauer-860310a3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>florian.zangerl@industriemagazin.at</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Florian</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Zangerl</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>In-Vision Technologies</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>florian.zangerl@industriemagazin.at</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Guntramsdorf, Niederösterreich, Österreich</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>http://in-vision.at</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/florian-zangerl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>constantin.zugmayer@mmcgmbh.at</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Constantin</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Zugmayer</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>bazuba</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Guntramsdorf, Niederösterreich, Österreich</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>constantin.zugmayer@mmcgmbh.at</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Wien und Umgebung</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>https://bazuba-franchise.com/</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/constantin-zugmayer-b74375100/</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>n.ke@wien.info</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Norbert</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Kettner</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Vienna Tourist Board</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>n.ke@wien.info</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>b2b.vienna.info</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/norbert-kettner/</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>alon.shklarek@gmail.com</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Alon</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Shklarek</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>asp. group</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>ashklarek@post.harvard.edu</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Founding Partner &amp; CEO</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>http://www.bridgeforbillions.org</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/alonshklarek/</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>office@ninofilm.net</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Nino</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Leitner</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>cinema5D</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>office@ninofilm.net</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Co-CEO and Co-Owner</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>https://www.mzed.com/</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/ninoleitner/</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>thomasg.winkler@t-online.de</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Winkler</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>UBM Development</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>thomas@winkleremail.com</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Chief Executive Officer and Chairman of the Executive Board</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>Vienna, Austria</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>http://www.ubm-development.com</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/thomasgwinkler/</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>activ@wakounig.at</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Benjamin</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Wakounig</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>ACTIV Project Management</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>activ@wakounig.at</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Geschäftsführer - CEO</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>Graz - Austria</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>http://www.activ.at/</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/kr-benjamin-wakounig/</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>alex_maurer@hotmail.ca</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Alexander</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Maurer</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Stadt Feldkirch</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Chief Digital Officer (CDO)</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>Feldkirch, Vorarlberg, Austria</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>https://www.feldkirch.at/</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/alexander-maurer-2666293/</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>bernhard.puttinger@gmx.at</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Bernhard</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Puttinger</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Green Tech Valley</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Graz, Steiermark, Österreich</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>puttinger@greentech.at</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>Wien, Österreich</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>http://www.unido.org</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/puttinger/</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>rogerallen8@gmail.com</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Roger</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Allen</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>RLA Global</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Group CEO</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>https://rlaglobal.com</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/roger-a-allen-099a428/</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>werner.sattlegger@chello.at</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Werner</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Sattlegger</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Art of Life</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>office@the-art-of-life.at</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>CEO and Founder</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>Klagenfurt, Wien und  San Francisco</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>https://www.the-art-of-life.at</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/wernersattlegger/</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>martina.cobb@tjs.at</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Cobb</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Martina</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Tyrolean Jets &amp; Services</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>martina.cobb@tjs.at</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>http://tjs.at</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/cobb-martina-b781997a/</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>patrick.kirchmayr@gmail.com</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Patrick</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Kirchmayr</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>ACS Logistics</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>patrick.kirchmayr@frux.io</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Head of Technology &amp; Sales, Digital Customer Experience</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>https://www.acslogistics.at/</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/patrickkirchmayr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>manfred.falch@gmail.com</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Manfred</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Falch</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>FMTec</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>m.falch@fmtec.eu</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Managing Director (owner of the company)</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>Bludenz, Austria</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>http://www.fmtec.eu</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/manfred-falch-b24a922b/</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>gerald.poellmann@magnasteyr.com</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Gerald</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Poellmann</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>METALPINE</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>gerald.poellmann@magnasteyr.com</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>CEO Metal Powder Production</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>Graz</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>https://www.metalpine.at</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/gerald-poellmann-31a1952/</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>hauke@agr.at</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Harald</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Hauke</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>ARA</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>hauke@agr.at</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>Wien, Österreich</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>https://www.ara.at/</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/harald-hauke/</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>verenalisa.schiller@gmail.com</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Verena</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Schiller</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Tyromotion</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Graz, Steiermark, Österreich</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Chief Executive Officer</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>Graz, Styria, Austria · Vor Ort</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>http://www.tyromotion.com</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/verena-lisa-schiller-19508a7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>lindner@infranorm.com</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Lindner</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Infranorm Technologie</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>lindner@infranorm.com</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/christian-lindner-21a72316a/</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>m.resch@zellamsee-kaprun.com</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Manuel</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Resch</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Zell am See-Kaprun</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Haus, Steiermark, Österreich</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>m.resch@zellamsee-kaprun.com</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>https://zellamsee-kaprun.com</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/manuel-resch-2a04a879/</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>linda.villarreal@gmail.com</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Villarreal-Paierl</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Pavi</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>linda@paierlconsulting.com</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/linda-villarreal-paierl-2b8411a/</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>gerald.amlacher@hotmail.com</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Mag.</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Amlacher</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>PCS Professional Clinical Software</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Klagenfurt am Wörthersee, Kärnten, Österreich</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>amlacher@procon.at</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>IT Project Manager | Digital Transformation | Healthcare</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>Klagenfurt am Wörthersee</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>www.pcs.at</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/mag-gerald-amlacher-mas-b6816746/</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Norbert.Juschicz@greenwood-power.com</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Norbert</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Juschicz</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Greenwood-Power</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Brunn am Gebirge, Niederösterreich, Österreich</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Norbert.Juschicz@greenwood-power.com</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>CEO and Co-Founder</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>Österreich · Vor Ort</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>www.greenwood-power.com</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/norbert-juschicz-sensors-for-smart-grids-504143123/</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>herwig@emotiongroup.com</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Herwig</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Straka</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>herwig@emotiongroup.com</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Founder &amp; CEO</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>Vienna, Austria</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/herwig-straka-74020437/</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>markus.schindler@pantarhei.com</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Markus</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Schindler</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>PANTARHEI Corporate Advisors</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>markus.schindler@pantarhei.com</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Founder, CEO</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>https://www.pantarhei.com/de/</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/markus-schindler-7ab043179/</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>hackl.martin@fronius.com</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Hackl</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>neoom</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>hackl.martin@fronius.com</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Chief Business Officer</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>Upper Austria, Austria · Vor Ort</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>www.neoom.com</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/martin-h-2b566690/</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>johannes.gutmann@sonnentor.at</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Johannes</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Gutmann</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>SONNENTOR</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Zwettl-Niederösterreich, Niederösterreich, Österreich</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>johannes.gutmann@sonnentor.at</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/johannes-gutmann-b32501228/</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>alexander.topf@mci-austria.com</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Alexander</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Topf</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>MCI Mining Construction International</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Graz, Steiermark, Österreich</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>alexander.topf@mci-austria.com</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>Deputy to CEO</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>https://www.mci-austria.com/</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/alexander-topf-06461b1a8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>michael@moll.net</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Moll</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>EBN</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>michael@moll.net</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>Member of the Board of Directors</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Brüssel, Region Brüssel, Belgien</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>https://www.ebn.eu</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/michael-moll-76089713/</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>marketing@allesprachen.at</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Ljubica</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Negovec</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>ALLESPRACHEN.AT</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Seiersberg, Steiermark, Österreich</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>marketing@allesprachen.at</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Founder &amp; CEO</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>https://www.allesprachen.at</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/ljubica-negovec/</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>wolfgang@rieder.cc</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Wolfgang</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Rieder</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Rieder Group</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Maishofen, Salzburg, Österreich</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>wolfgang@rieder.cc</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>http://harvard.edu</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/wolfgang-rieder-aaa02243/</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>manuel.hofer@topteam.co.at</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Manuel</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Hofer</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Transgourmet Österreich</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>manuel.hofer@topteam.co.at</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Member of the Executive Board / Geschäftsleiter Beschaffung &amp; Sortimentspolitik</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Traun, Oberösterreich, Österreich</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>http://www.transgourmet.at</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/manuel-hofer-6a44176a/</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>a.heger@prochaska.eu</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Andreas</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Heger</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Prochaska Handels</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>a.heger@prochaska.eu</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>http://www.prochaska.eu</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/andreas-heger-86275820/</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>gusenbauermarkus@steyr-werner.at</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Markus</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Gusenbauer</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>DEXIS Austria</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>gusenbauermarkus@steyr-werner.at</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>Chief Executive Officer</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Pasching, Austria</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>www.dexis.at</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/markus-gusenbauer-8112aba0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>dieter.hoefler@tectos.at</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Dieter</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Höfler</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>tectos</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>dieter.hoefler@tectos.at</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>http://www.tectos.at</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/dieter-hoefler/</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>christoph.jandl@henn-group.com</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Christoph</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Jandl</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>HENN Connector Group</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>christoph.jandl@henn-group.com</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>CEO HENNgineered</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Dornbirn, Vorarlberg, Österreich</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>http://www.henn-group.com</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/christoph-jandl-henn-connector-group/</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>renate.sandhofer@gesa.at</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Renate</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Sandhofer</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Gesa Transporttechnik</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Klagenfurt am Wörthersee, Kärnten, Österreich</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>renate.sandhofer@gesa.at</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Reifnit</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/renate-sandhofer-566528158/</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>alex_murer@hotmail.com</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Alexander</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Murer</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Kilobaser</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Graz, Steiermark, Österreich</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>Graz / San Francisco</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>http://www.kilobaser.com</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/alexander-murer/</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>f.soellhinger@gmail.com</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Franz</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Soellhinger</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Geroldinger</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Österreich</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>Chief Executive Officer</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
         <is>
           <t>Sigharting, Upper Austria, Austria</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr">
+      <c r="K188" t="inlineStr">
         <is>
           <t>http://www.geroldinger.com</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="L188" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/franz-soellhinger-37820a3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>theuermann.christian@gmx.at</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Theuermann</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>AXIS Flight Training Systems</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Edelsgrub, Steiermark, Österreich</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>CEO - AXIS Flight Training Systems GmbH</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Lebring, AUSTRIA</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>http://www.axis-simulation.com</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/christian-theuermann-b05668134/</t>
         </is>
       </c>
     </row>

--- a/merged_profiles_mautic.xlsx
+++ b/merged_profiles_mautic.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>first_name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>last_name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -456,12 +456,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>location</t>
+          <t>Address Line 1</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>linked_in</t>
+          <t>LinkedIn</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">

--- a/merged_profiles_mautic.xlsx
+++ b/merged_profiles_mautic.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>firstname</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>lastname</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -456,12 +456,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Address Line 1</t>
+          <t>address1</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>LinkedIn</t>
+          <t>linkedin</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>companyindustry</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
